--- a/queens/config/templates/dukes_ch_7.xlsx
+++ b/queens/config/templates/dukes_ch_7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\PycharmProjects\uk_energy_data_api\data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\AppData\Local\queens\queens\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01C9507-3B85-4F3F-B123-9B56850C3725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C0EE9-1903-49D7-B9AF-4501B56D0998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.1.A" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="235">
   <si>
     <t>Number of sites [note 1]</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>Total heat exported (GWh):</t>
+  </si>
+  <si>
+    <t>Electrical outout</t>
   </si>
 </sst>
 </file>
@@ -1741,15 +1744,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2083,11 +2085,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5265A7C8-C2E0-48F7-97D2-99815FF5F48B}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5477,11 +5485,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E00016-49DA-446A-8B86-6C4134656589}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7081,11 +7094,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E42056A-E4C4-4EBE-957A-2A58D9708D35}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7346,11 +7364,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6BF390-3905-47A9-BFA2-EDDB55423216}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7941,11 +7965,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A509FC-E581-4569-91E8-2A6B3DC47640}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8536,12 +8566,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1667DED9-64F7-4753-BEF2-10B751BC78DA}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10022,13 +10056,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0439DF04-97B5-47D3-ADEE-ABAB52F7E934}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -10584,7 +10620,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -11100,13 +11136,13 @@
         <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -11118,13 +11154,13 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D61" t="s">
         <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -11136,13 +11172,13 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D62" t="s">
         <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -11154,13 +11190,13 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D63" t="s">
         <v>72</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -11172,13 +11208,13 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s">
         <v>73</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -11190,13 +11226,13 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D65" t="s">
         <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -11208,13 +11244,13 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D66" t="s">
         <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -11226,13 +11262,13 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D67" t="s">
         <v>76</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -11244,13 +11280,13 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D68" t="s">
         <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -11262,13 +11298,13 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D69" t="s">
         <v>78</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -11280,13 +11316,13 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D70" t="s">
         <v>79</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -11298,13 +11334,13 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D71" t="s">
         <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -11316,13 +11352,13 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D72" t="s">
         <v>81</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -11334,13 +11370,13 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D73" t="s">
         <v>82</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -11352,13 +11388,13 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D74" t="s">
         <v>83</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -11370,13 +11406,13 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D75" t="s">
         <v>84</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -11388,13 +11424,13 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D76" t="s">
         <v>85</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -11406,13 +11442,13 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D77" t="s">
         <v>86</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -11424,13 +11460,13 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D78" t="s">
         <v>87</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -11442,13 +11478,13 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D79" t="s">
         <v>88</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -11460,13 +11496,13 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D80" t="s">
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -11478,13 +11514,13 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D81" t="s">
         <v>90</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -11496,13 +11532,13 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D82" t="s">
         <v>91</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -11514,13 +11550,13 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D83" t="s">
         <v>92</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -11532,13 +11568,13 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D84" t="s">
         <v>93</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -11550,13 +11586,13 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D85" t="s">
         <v>94</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -11568,13 +11604,13 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D86" t="s">
         <v>95</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -11586,13 +11622,13 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D87" t="s">
         <v>96</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -11604,13 +11640,13 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="D88" t="s">
         <v>97</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -11622,13 +11658,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD63564-D042-4805-A2C6-42BF7F89DBA9}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12418,13 +12457,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEC8FD1-AA4A-4396-9515-06C3803B35AC}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:F43"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13214,11 +13256,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F593122-BA8B-48CD-8F6D-B0B9C6FD0203}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14130,11 +14178,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66568C65-9DC3-4E0E-BAD1-792710745910}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -15046,11 +15100,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89F9E44-9421-46F1-8E47-C866C8354AC5}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:F43"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -15962,11 +16022,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F18BB1C-B509-4040-BA9C-B75B7A430620}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
